--- a/dashboard-ui/src/components/AggregateResults/Variable Definitions/PH2_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/Variable Definitions/PH2_Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Variable</t>
   </si>
@@ -58,6 +58,12 @@
     <t>SS_KDMA_TEXT</t>
   </si>
   <si>
+    <t>PS_Multi_KDMA_TEXT</t>
+  </si>
+  <si>
+    <t>AF_Multi_KDMA_TEXT</t>
+  </si>
+  <si>
     <t>Variable Group</t>
   </si>
   <si>
@@ -113,6 +119,12 @@
   </si>
   <si>
     <t>Search vs Stay KDMA measurement from text-based assessment</t>
+  </si>
+  <si>
+    <t>Personal Safety KDMA measurement from the multi kdma portion of the text-based assessment</t>
+  </si>
+  <si>
+    <t>Affiliation Focus KDMA measurement from the multi kdma portion of the text-based assessment</t>
   </si>
   <si>
     <t>Labels</t>
@@ -168,19 +180,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -221,7 +227,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -529,26 +535,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="97.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="64.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="59.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="39.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="108.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="110.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="73.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="73.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="73.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="73.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="97.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="64.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="59.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="39.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="108.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="110.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="73.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="73.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -594,219 +602,255 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
